--- a/data/trans_dic/P39A1_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.7195952781440228</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7375026116306275</v>
+        <v>0.7375026116306274</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7300883127423958</v>
+        <v>0.7300883127423961</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6792480490791216</v>
+        <v>0.6777077931303714</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7091128359010113</v>
+        <v>0.711344896129004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7048983607620493</v>
+        <v>0.7060750156864214</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7598591805509102</v>
+        <v>0.7565669812874385</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7655446366499534</v>
+        <v>0.7651585619618744</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7516301985283802</v>
+        <v>0.7537749878645202</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7124263816045363</v>
+        <v>0.7124263816045362</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.6723487907595613</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6926641050075049</v>
+        <v>0.6926641050075047</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6891598430722335</v>
+        <v>0.6898557353711039</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6533458873322623</v>
+        <v>0.6523371312925269</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6770039594881204</v>
+        <v>0.6785514023496848</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7339477472322894</v>
+        <v>0.7331921270189077</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6906123746306329</v>
+        <v>0.6892082824844374</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7061109410122287</v>
+        <v>0.7066575499230071</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.6549382029075368</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6731737153540176</v>
+        <v>0.6731737153540177</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6507058931850043</v>
+        <v>0.6503154573401564</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.621055840202862</v>
+        <v>0.6217654055162176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6478952190970203</v>
+        <v>0.6472195806352697</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7261510015737722</v>
+        <v>0.7266643976706254</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6863377314614181</v>
+        <v>0.6869681151680698</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.698459991031007</v>
+        <v>0.6956277249666351</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.70914601222061</v>
+        <v>0.7091460122206102</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6814513040204185</v>
+        <v>0.6814513040204184</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.6949626470193793</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6890229237400389</v>
+        <v>0.6916778999031901</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6670130792013308</v>
+        <v>0.6668084357839595</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6836533902734222</v>
+        <v>0.6834778594453118</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7247770684644483</v>
+        <v>0.7260106035061328</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6958348662010276</v>
+        <v>0.6965101491379044</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7053078957395607</v>
+        <v>0.7059130211635787</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>315105</v>
+        <v>314391</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>465558</v>
+        <v>467024</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>789796</v>
+        <v>791115</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>352501</v>
+        <v>350974</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>502608</v>
+        <v>502354</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>842157</v>
+        <v>844560</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1419376</v>
+        <v>1420810</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1308984</v>
+        <v>1306963</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2750723</v>
+        <v>2757011</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1511620</v>
+        <v>1510064</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1383647</v>
+        <v>1380834</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>2868987</v>
+        <v>2871208</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>440848</v>
+        <v>440584</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>434823</v>
+        <v>435320</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>892558</v>
+        <v>891627</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>491961</v>
+        <v>492309</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>480529</v>
+        <v>480970</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>962217</v>
+        <v>958316</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2205542</v>
+        <v>2214040</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2241283</v>
+        <v>2240596</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4485552</v>
+        <v>4484400</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2319990</v>
+        <v>2323938</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2338130</v>
+        <v>2340399</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4627630</v>
+        <v>4631601</v>
       </c>
     </row>
     <row r="20">
